--- a/00.LVGL_Demo/STM32F407VGT6引脚定义.xlsx
+++ b/00.LVGL_Demo/STM32F407VGT6引脚定义.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STM32Cube\STM32F407Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STM32Cube\STM32F407Project\Learn_LVGL\00.LVGL_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA21FF8E-2599-4C0D-9E2C-6F5414823FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A2DA6C-2169-4E23-B948-CECE0174094C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{D862D2F7-4BB5-4946-9DE3-EE852D9A2767}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="228">
   <si>
     <t>NRST</t>
   </si>
   <si>
     <t>PB12</t>
-  </si>
-  <si>
-    <t>PA8</t>
   </si>
   <si>
     <t>PA11</t>
@@ -336,9 +333,6 @@
   </si>
   <si>
     <t>USART2_RTS / UART4_RX/ ETH_RMII_REF_CLK / ETH_MII_RX_CLK / TIM5_CH2 / TIM2_CH2/ EVENTOUT</t>
-  </si>
-  <si>
-    <t>ADC123_IN1</t>
   </si>
   <si>
     <t>PA2</t>
@@ -465,9 +459,6 @@
     <t>PB0</t>
   </si>
   <si>
-    <t>TIM3_CH3 / TIM8_CH2N/ OTG_HS_ULPI_D1/ ETH_MII_RXD2 / TIM1_CH2N/ EVENTOUT</t>
-  </si>
-  <si>
     <t>ADC12_IN8</t>
   </si>
   <si>
@@ -690,9 +681,6 @@
     <t>PA9</t>
   </si>
   <si>
-    <t>USART1_TX/ TIM1_CH2 / I2C3_SMBA / DCMI_D0/ EVENTOUT</t>
-  </si>
-  <si>
     <t>OTG_FS_VBUS</t>
   </si>
   <si>
@@ -949,6 +937,85 @@
   </si>
   <si>
     <t>STM32F407VGT6引脚定义表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_TX/ TIM1_CH2 / I2C3_SMBA / DCMI_D0/ EVENTOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3_CH3 / TIM8_CH2N/ OTG_HS_ULPI_D1/ ETH_MII_RXD2 / TIM1_CH2N/ EVENTOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心板按键KEY0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展版按键KEY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展版按键KEY2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展版按键KEY3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展版按键KEY4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC123_IN1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1_IN1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心板LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI1_SCK（LCD_SCLK）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI1_MOSI（LCD_SDA）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3_CH3：PWM输出（LCD_BLK）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD_DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD_CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD_RESET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1223,11 +1290,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1548,7 +1615,7 @@
   </sheetPr>
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1566,41 +1633,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -1608,86 +1675,92 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="20"/>
     </row>
@@ -1696,20 +1769,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="20"/>
     </row>
@@ -1718,20 +1791,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -1740,42 +1813,44 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="20"/>
+        <v>27</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -1784,20 +1859,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -1806,20 +1881,20 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="5"/>
     </row>
@@ -1828,20 +1903,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -1850,20 +1925,20 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -1872,20 +1947,20 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -1897,17 +1972,17 @@
         <v>0</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -1916,20 +1991,20 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>40</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>41</v>
       </c>
       <c r="H17" s="20"/>
     </row>
@@ -1938,20 +2013,20 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="H18" s="20"/>
     </row>
@@ -1960,20 +2035,20 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>46</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>47</v>
       </c>
       <c r="H19" s="20"/>
     </row>
@@ -1982,20 +2057,20 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>49</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>50</v>
       </c>
       <c r="H20" s="20"/>
     </row>
@@ -2004,20 +2079,20 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21" s="5"/>
     </row>
@@ -2026,20 +2101,20 @@
         <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" s="5"/>
     </row>
@@ -2048,20 +2123,20 @@
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23" s="5"/>
     </row>
@@ -2070,20 +2145,20 @@
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H24" s="5"/>
     </row>
@@ -2092,64 +2167,68 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="21" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="20"/>
+        <v>217</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="20"/>
     </row>
@@ -2158,20 +2237,20 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H28" s="20"/>
     </row>
@@ -2180,20 +2259,20 @@
         <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H29" s="5"/>
     </row>
@@ -2202,20 +2281,20 @@
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H30" s="5"/>
     </row>
@@ -2224,20 +2303,20 @@
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H31" s="21"/>
     </row>
@@ -2246,42 +2325,44 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" s="21"/>
+        <v>67</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H33" s="20"/>
     </row>
@@ -2290,42 +2371,44 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="20"/>
+        <v>73</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H35" s="20"/>
     </row>
@@ -2334,20 +2417,20 @@
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H36" s="20"/>
     </row>
@@ -2356,42 +2439,44 @@
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="10" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="20"/>
+        <v>81</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H38" s="20"/>
     </row>
@@ -2400,20 +2485,20 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H39" s="7"/>
     </row>
@@ -2422,20 +2507,20 @@
         <v>38</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H40" s="20"/>
     </row>
@@ -2444,42 +2529,44 @@
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H42" s="20"/>
     </row>
@@ -2488,42 +2575,44 @@
         <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H44" s="20"/>
     </row>
@@ -2532,20 +2621,20 @@
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45" s="20"/>
     </row>
@@ -2554,20 +2643,20 @@
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H46" s="20"/>
     </row>
@@ -2576,20 +2665,20 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H47" s="20"/>
     </row>
@@ -2598,20 +2687,20 @@
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H48" s="20"/>
     </row>
@@ -2620,20 +2709,20 @@
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H49" s="20"/>
     </row>
@@ -2642,20 +2731,20 @@
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H50" s="20"/>
     </row>
@@ -2664,20 +2753,20 @@
         <v>49</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H51" s="5"/>
     </row>
@@ -2686,20 +2775,20 @@
         <v>50</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H52" s="5"/>
     </row>
@@ -2711,17 +2800,17 @@
         <v>1</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H53" s="20"/>
     </row>
@@ -2730,20 +2819,20 @@
         <v>52</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H54" s="20"/>
     </row>
@@ -2752,20 +2841,20 @@
         <v>53</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H55" s="20"/>
     </row>
@@ -2774,20 +2863,20 @@
         <v>54</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H56" s="20"/>
     </row>
@@ -2796,20 +2885,20 @@
         <v>55</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H57" s="20"/>
     </row>
@@ -2818,20 +2907,20 @@
         <v>56</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H58" s="20"/>
     </row>
@@ -2840,20 +2929,20 @@
         <v>57</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H59" s="20"/>
     </row>
@@ -2862,20 +2951,20 @@
         <v>58</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H60" s="20"/>
     </row>
@@ -2884,20 +2973,20 @@
         <v>59</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H61" s="20"/>
     </row>
@@ -2906,20 +2995,20 @@
         <v>60</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H62" s="20"/>
     </row>
@@ -2928,20 +3017,20 @@
         <v>61</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H63" s="20"/>
     </row>
@@ -2950,20 +3039,20 @@
         <v>62</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H64" s="20"/>
     </row>
@@ -2972,20 +3061,20 @@
         <v>63</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H65" s="20"/>
     </row>
@@ -2994,20 +3083,20 @@
         <v>64</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H66" s="20"/>
     </row>
@@ -3016,20 +3105,20 @@
         <v>65</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H67" s="20"/>
     </row>
@@ -3038,20 +3127,20 @@
         <v>66</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H68" s="20"/>
     </row>
@@ -3059,21 +3148,21 @@
       <c r="A69" s="8">
         <v>67</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>2</v>
+      <c r="B69" s="9">
+        <v>0</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H69" s="20"/>
     </row>
@@ -3082,64 +3171,68 @@
         <v>68</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="10" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="H70" s="20"/>
+        <v>143</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>69</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>70</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H72" s="20"/>
     </row>
@@ -3148,20 +3241,20 @@
         <v>71</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H73" s="20"/>
     </row>
@@ -3170,20 +3263,20 @@
         <v>72</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -3192,20 +3285,20 @@
         <v>73</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H75" s="5"/>
     </row>
@@ -3214,20 +3307,20 @@
         <v>74</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H76" s="5"/>
     </row>
@@ -3236,20 +3329,20 @@
         <v>75</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H77" s="5"/>
     </row>
@@ -3258,20 +3351,20 @@
         <v>76</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H78" s="7"/>
     </row>
@@ -3280,20 +3373,20 @@
         <v>77</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H79" s="20"/>
     </row>
@@ -3302,20 +3395,20 @@
         <v>78</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H80" s="20"/>
     </row>
@@ -3324,20 +3417,20 @@
         <v>79</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H81" s="20"/>
     </row>
@@ -3346,20 +3439,20 @@
         <v>80</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H82" s="20"/>
     </row>
@@ -3368,20 +3461,20 @@
         <v>81</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H83" s="20"/>
     </row>
@@ -3390,42 +3483,44 @@
         <v>82</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="H84" s="20" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="85" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>83</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H85" s="20"/>
     </row>
@@ -3434,42 +3529,44 @@
         <v>84</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>85</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H87" s="20"/>
     </row>
@@ -3478,42 +3575,44 @@
         <v>86</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="H88" s="20" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>87</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H89" s="20"/>
     </row>
@@ -3522,42 +3621,44 @@
         <v>88</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="H90" s="20" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="91" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>89</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H91" s="20"/>
     </row>
@@ -3566,20 +3667,20 @@
         <v>90</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H92" s="20"/>
     </row>
@@ -3588,20 +3689,20 @@
         <v>91</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H93" s="20"/>
     </row>
@@ -3610,20 +3711,20 @@
         <v>92</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H94" s="20"/>
     </row>
@@ -3632,20 +3733,20 @@
         <v>93</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H95" s="20"/>
     </row>
@@ -3654,20 +3755,20 @@
         <v>94</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" s="23" t="s">
-        <v>210</v>
+        <v>16</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>206</v>
       </c>
       <c r="H96" s="7"/>
     </row>
@@ -3676,20 +3777,20 @@
         <v>95</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H97" s="20"/>
     </row>
@@ -3698,20 +3799,20 @@
         <v>96</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H98" s="20"/>
     </row>
@@ -3720,20 +3821,20 @@
         <v>97</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H99" s="20"/>
     </row>
@@ -3742,20 +3843,20 @@
         <v>98</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H100" s="20"/>
     </row>
@@ -3764,20 +3865,20 @@
         <v>99</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H101" s="5"/>
     </row>
@@ -3786,10 +3887,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>

--- a/00.LVGL_Demo/STM32F407VGT6引脚定义.xlsx
+++ b/00.LVGL_Demo/STM32F407VGT6引脚定义.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STM32Cube\STM32F407Project\Learn_LVGL\00.LVGL_Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU Project\STM32F407Project\LVGL\00.LVGL_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A2DA6C-2169-4E23-B948-CECE0174094C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53E0C0D-8B35-43EC-9A78-F7BB7F7FECB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{D862D2F7-4BB5-4946-9DE3-EE852D9A2767}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D862D2F7-4BB5-4946-9DE3-EE852D9A2767}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="232">
   <si>
     <t>NRST</t>
   </si>
@@ -1016,6 +1016,22 @@
   </si>
   <si>
     <t>LCD_RESET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP_RST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP_INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1314,9 +1330,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1354,7 +1370,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1460,7 +1476,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1602,7 +1618,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1616,23 +1632,23 @@
   <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.58203125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="46.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="33.25" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.58203125" style="1"/>
+    <col min="9" max="16384" width="16.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>207</v>
       </c>
@@ -1644,7 +1660,7 @@
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1670,7 +1686,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -1694,7 +1710,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1718,7 +1734,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1742,7 +1758,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1764,7 +1780,7 @@
       </c>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1786,7 +1802,7 @@
       </c>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1808,7 +1824,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1832,7 +1848,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1854,7 +1870,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1876,7 +1892,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1898,7 +1914,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1920,7 +1936,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1942,7 +1958,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -1964,7 +1980,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -1986,7 +2002,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -2008,7 +2024,7 @@
       </c>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -2030,7 +2046,7 @@
       </c>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -2052,7 +2068,7 @@
       </c>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -2074,7 +2090,7 @@
       </c>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -2096,7 +2112,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -2118,7 +2134,7 @@
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -2140,7 +2156,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -2162,7 +2178,7 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -2186,7 +2202,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -2210,7 +2226,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -2232,7 +2248,7 @@
       </c>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -2254,7 +2270,7 @@
       </c>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -2276,7 +2292,7 @@
       </c>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -2298,7 +2314,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -2320,7 +2336,7 @@
       </c>
       <c r="H31" s="21"/>
     </row>
-    <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -2344,7 +2360,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -2366,7 +2382,7 @@
       </c>
       <c r="H33" s="20"/>
     </row>
-    <row r="34" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -2390,7 +2406,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -2412,7 +2428,7 @@
       </c>
       <c r="H35" s="20"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -2434,7 +2450,7 @@
       </c>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2458,7 +2474,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2480,7 +2496,7 @@
       </c>
       <c r="H38" s="20"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -2502,7 +2518,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2524,7 +2540,7 @@
       </c>
       <c r="H40" s="20"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2548,7 +2564,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2570,7 +2586,7 @@
       </c>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2594,7 +2610,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2616,7 +2632,7 @@
       </c>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2638,7 +2654,7 @@
       </c>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2660,7 +2676,7 @@
       </c>
       <c r="H46" s="20"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2682,7 +2698,7 @@
       </c>
       <c r="H47" s="20"/>
     </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2704,7 +2720,7 @@
       </c>
       <c r="H48" s="20"/>
     </row>
-    <row r="49" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2726,7 +2742,7 @@
       </c>
       <c r="H49" s="20"/>
     </row>
-    <row r="50" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -2748,7 +2764,7 @@
       </c>
       <c r="H50" s="20"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -2770,7 +2786,7 @@
       </c>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -2792,7 +2808,7 @@
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="66" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -2814,7 +2830,7 @@
       </c>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -2836,7 +2852,7 @@
       </c>
       <c r="H54" s="20"/>
     </row>
-    <row r="55" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -2858,7 +2874,7 @@
       </c>
       <c r="H55" s="20"/>
     </row>
-    <row r="56" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -2880,7 +2896,7 @@
       </c>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -2902,7 +2918,7 @@
       </c>
       <c r="H57" s="20"/>
     </row>
-    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>56</v>
       </c>
@@ -2924,7 +2940,7 @@
       </c>
       <c r="H58" s="20"/>
     </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>57</v>
       </c>
@@ -2946,7 +2962,7 @@
       </c>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -2968,7 +2984,7 @@
       </c>
       <c r="H60" s="20"/>
     </row>
-    <row r="61" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>59</v>
       </c>
@@ -2990,7 +3006,7 @@
       </c>
       <c r="H61" s="20"/>
     </row>
-    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>60</v>
       </c>
@@ -3012,7 +3028,7 @@
       </c>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>61</v>
       </c>
@@ -3034,7 +3050,7 @@
       </c>
       <c r="H63" s="20"/>
     </row>
-    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>62</v>
       </c>
@@ -3056,7 +3072,7 @@
       </c>
       <c r="H64" s="20"/>
     </row>
-    <row r="65" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>63</v>
       </c>
@@ -3078,7 +3094,7 @@
       </c>
       <c r="H65" s="20"/>
     </row>
-    <row r="66" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>64</v>
       </c>
@@ -3100,7 +3116,7 @@
       </c>
       <c r="H66" s="20"/>
     </row>
-    <row r="67" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>65</v>
       </c>
@@ -3122,7 +3138,7 @@
       </c>
       <c r="H67" s="20"/>
     </row>
-    <row r="68" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>66</v>
       </c>
@@ -3144,7 +3160,7 @@
       </c>
       <c r="H68" s="20"/>
     </row>
-    <row r="69" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>67</v>
       </c>
@@ -3166,7 +3182,7 @@
       </c>
       <c r="H69" s="20"/>
     </row>
-    <row r="70" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>68</v>
       </c>
@@ -3190,7 +3206,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>69</v>
       </c>
@@ -3214,7 +3230,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>70</v>
       </c>
@@ -3236,7 +3252,7 @@
       </c>
       <c r="H72" s="20"/>
     </row>
-    <row r="73" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>71</v>
       </c>
@@ -3258,7 +3274,7 @@
       </c>
       <c r="H73" s="20"/>
     </row>
-    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>72</v>
       </c>
@@ -3280,7 +3296,7 @@
       </c>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -3302,7 +3318,7 @@
       </c>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>74</v>
       </c>
@@ -3324,7 +3340,7 @@
       </c>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -3346,7 +3362,7 @@
       </c>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>76</v>
       </c>
@@ -3368,7 +3384,7 @@
       </c>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>77</v>
       </c>
@@ -3390,7 +3406,7 @@
       </c>
       <c r="H79" s="20"/>
     </row>
-    <row r="80" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>78</v>
       </c>
@@ -3412,7 +3428,7 @@
       </c>
       <c r="H80" s="20"/>
     </row>
-    <row r="81" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>79</v>
       </c>
@@ -3434,7 +3450,7 @@
       </c>
       <c r="H81" s="20"/>
     </row>
-    <row r="82" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>80</v>
       </c>
@@ -3456,7 +3472,7 @@
       </c>
       <c r="H82" s="20"/>
     </row>
-    <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>81</v>
       </c>
@@ -3478,7 +3494,7 @@
       </c>
       <c r="H83" s="20"/>
     </row>
-    <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>82</v>
       </c>
@@ -3502,7 +3518,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>83</v>
       </c>
@@ -3524,7 +3540,7 @@
       </c>
       <c r="H85" s="20"/>
     </row>
-    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>84</v>
       </c>
@@ -3548,7 +3564,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>85</v>
       </c>
@@ -3570,7 +3586,7 @@
       </c>
       <c r="H87" s="20"/>
     </row>
-    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>86</v>
       </c>
@@ -3594,7 +3610,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>87</v>
       </c>
@@ -3616,7 +3632,7 @@
       </c>
       <c r="H89" s="20"/>
     </row>
-    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>88</v>
       </c>
@@ -3640,7 +3656,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>89</v>
       </c>
@@ -3662,7 +3678,7 @@
       </c>
       <c r="H91" s="20"/>
     </row>
-    <row r="92" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>90</v>
       </c>
@@ -3684,7 +3700,7 @@
       </c>
       <c r="H92" s="20"/>
     </row>
-    <row r="93" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="66" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>91</v>
       </c>
@@ -3706,7 +3722,7 @@
       </c>
       <c r="H93" s="20"/>
     </row>
-    <row r="94" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>92</v>
       </c>
@@ -3726,9 +3742,11 @@
       <c r="G94" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H94" s="20"/>
-    </row>
-    <row r="95" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H94" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>93</v>
       </c>
@@ -3748,9 +3766,11 @@
       <c r="G95" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H95" s="20"/>
-    </row>
-    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H95" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>94</v>
       </c>
@@ -3772,7 +3792,7 @@
       </c>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>95</v>
       </c>
@@ -3792,9 +3812,11 @@
       <c r="G97" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H97" s="20"/>
-    </row>
-    <row r="98" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H97" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>96</v>
       </c>
@@ -3814,9 +3836,11 @@
       <c r="G98" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H98" s="20"/>
-    </row>
-    <row r="99" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H98" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>97</v>
       </c>
@@ -3838,7 +3862,7 @@
       </c>
       <c r="H99" s="20"/>
     </row>
-    <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>98</v>
       </c>
@@ -3860,7 +3884,7 @@
       </c>
       <c r="H100" s="20"/>
     </row>
-    <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>99</v>
       </c>
@@ -3882,7 +3906,7 @@
       </c>
       <c r="H101" s="5"/>
     </row>
-    <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>100</v>
       </c>
@@ -3898,8 +3922,8 @@
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
     </row>
-    <row r="103" spans="1:8" ht="14" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="1:8" ht="14" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:8" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:8" ht="14.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
